--- a/model/results/experiment3/repeated/results.xlsx
+++ b/model/results/experiment3/repeated/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Documents/UIUC/Summer/Project/results20230228/experiment3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Downloads/results/experiment3/repeated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5AC5F8-BE2D-0241-B3F3-BBAC3EF2D120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52429B3-FE29-DD45-BC9A-636D69D6E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DF930B9A-4194-F248-A12B-443DEBD84A5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>model</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>tree</t>
+  </si>
+  <si>
+    <t>auc</t>
   </si>
 </sst>
 </file>
@@ -423,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3A7431-E7A9-234E-A3CB-E215A6BF6280}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,10 +451,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -459,19 +465,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.61225799999999997</v>
+        <v>0.364506</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.14466499999999999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.64340699999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.47987200000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.32551099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -479,19 +488,22 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.408275</v>
+        <v>0.32683800000000002</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.32683800000000002</v>
       </c>
       <c r="E3">
-        <v>0.315104</v>
+        <v>0.32683800000000002</v>
       </c>
       <c r="F3">
-        <v>0.47445599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.50449699999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.33202599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -499,19 +511,22 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.347028</v>
+        <v>0.32379799999999997</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.32379799999999997</v>
       </c>
       <c r="E4">
-        <v>0.32888099999999998</v>
+        <v>0.32379799999999997</v>
       </c>
       <c r="F4">
-        <v>0.46005200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.48890099999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.32698700000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -522,16 +537,19 @@
         <v>0.32786399999999999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.32786399999999999</v>
       </c>
       <c r="E5">
-        <v>0.33068799999999998</v>
+        <v>0.32786399999999999</v>
       </c>
       <c r="F5">
-        <v>0.41698299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.49946400000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.33184000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -539,19 +557,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.32708599999999999</v>
+        <v>0.326289</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.326289</v>
       </c>
       <c r="E6">
-        <v>0.331349</v>
+        <v>0.326289</v>
       </c>
       <c r="F6">
-        <v>0.46509600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.49732999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.33080700000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -559,19 +580,22 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0.33260000000000001</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="E7">
-        <v>0.33154099999999997</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="F7">
-        <v>0.45002900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.48040899999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.32499800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -582,16 +606,19 @@
         <v>0.32695200000000002</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.32695200000000002</v>
       </c>
       <c r="E8">
-        <v>0.33024300000000001</v>
+        <v>0.32695200000000002</v>
       </c>
       <c r="F8">
-        <v>0.487786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.46980499999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.32145200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -599,19 +626,22 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0.332679</v>
+        <v>0.32840599999999998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.32840599999999998</v>
       </c>
       <c r="E9">
-        <v>0.33154099999999997</v>
+        <v>0.32840599999999998</v>
       </c>
       <c r="F9">
-        <v>0.44003799999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.493228</v>
+      </c>
+      <c r="G9">
+        <v>0.330152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -622,16 +652,19 @@
         <v>0.32554300000000003</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.32554300000000003</v>
       </c>
       <c r="E10">
-        <v>0.33333299999999999</v>
+        <v>0.32554300000000003</v>
       </c>
       <c r="F10">
-        <v>0.436332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.49001400000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.327932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -642,16 +675,19 @@
         <v>0.32971499999999998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="E11">
-        <v>0.33333299999999999</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="F11">
-        <v>0.45900800000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.49198599999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.32999699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -662,16 +698,19 @@
         <v>0.32684000000000002</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.32684000000000002</v>
       </c>
       <c r="E12">
-        <v>0.33246500000000001</v>
+        <v>0.32684000000000002</v>
       </c>
       <c r="F12">
-        <v>0.45652599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.50342399999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.332791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -682,16 +721,19 @@
         <v>0.32990700000000001</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.32990700000000001</v>
       </c>
       <c r="E13">
-        <v>0.33333299999999999</v>
+        <v>0.32990700000000001</v>
       </c>
       <c r="F13">
-        <v>0.463088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.48527100000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.33402300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -702,16 +744,19 @@
         <v>0.326905</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.326905</v>
       </c>
       <c r="E14">
-        <v>0.33333299999999999</v>
+        <v>0.326905</v>
       </c>
       <c r="F14">
-        <v>0.42863299999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.49459199999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.32973400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -722,16 +767,19 @@
         <v>0.329127</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.329127</v>
       </c>
       <c r="E15">
-        <v>0.33333299999999999</v>
+        <v>0.329127</v>
       </c>
       <c r="F15">
-        <v>0.435832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.49385899999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.330565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -742,16 +790,19 @@
         <v>0.32350000000000001</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="E16">
-        <v>0.33333299999999999</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="F16">
-        <v>0.46630100000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.489925</v>
+      </c>
+      <c r="G16">
+        <v>0.32699499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -759,19 +810,22 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.61225799999999997</v>
+        <v>0.43624299999999999</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.52336099999999997</v>
       </c>
       <c r="E17">
-        <v>0.14466499999999999</v>
+        <v>0.26803399999999999</v>
       </c>
       <c r="F17">
-        <v>0.64340699999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.63750300000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.48180099999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -779,19 +833,22 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.408275</v>
+        <v>0.37709100000000001</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.42562499999999998</v>
       </c>
       <c r="E18">
-        <v>0.315104</v>
+        <v>0.25426300000000002</v>
       </c>
       <c r="F18">
-        <v>0.47445599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.60672300000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.41819499999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -799,19 +856,22 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>0.347028</v>
+        <v>0.38939200000000002</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.407831</v>
       </c>
       <c r="E19">
-        <v>0.32888099999999998</v>
+        <v>0.32914500000000002</v>
       </c>
       <c r="F19">
-        <v>0.46005200000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.60769899999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.41852299999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -819,19 +879,22 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.32786399999999999</v>
+        <v>0.32521800000000001</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.32915299999999997</v>
       </c>
       <c r="E20">
-        <v>0.33068799999999998</v>
+        <v>0.31265199999999999</v>
       </c>
       <c r="F20">
-        <v>0.41698299999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.54807700000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.38084400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -839,19 +902,22 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>0.32708599999999999</v>
+        <v>0.33704200000000001</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.33704200000000001</v>
       </c>
       <c r="E21">
-        <v>0.331349</v>
+        <v>0.33704200000000001</v>
       </c>
       <c r="F21">
-        <v>0.46509600000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.55113699999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.387604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -859,19 +925,22 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>0.33260000000000001</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="E22">
-        <v>0.33154099999999997</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="F22">
-        <v>0.45002900000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.56588899999999998</v>
+      </c>
+      <c r="G22">
+        <v>0.39837400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -882,16 +951,19 @@
         <v>0.32695200000000002</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.33759499999999998</v>
       </c>
       <c r="E23">
-        <v>0.33024300000000001</v>
+        <v>0.32695200000000002</v>
       </c>
       <c r="F23">
-        <v>0.487786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.57547300000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.420431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -899,19 +971,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.332679</v>
+        <v>0.318305</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.31972499999999998</v>
       </c>
       <c r="E24">
-        <v>0.33154099999999997</v>
+        <v>0.318305</v>
       </c>
       <c r="F24">
-        <v>0.44003799999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.55779500000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.38724500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -919,19 +994,22 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.32554300000000003</v>
+        <v>0.33091900000000002</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.33499800000000002</v>
       </c>
       <c r="E25">
-        <v>0.33333299999999999</v>
+        <v>0.33091900000000002</v>
       </c>
       <c r="F25">
-        <v>0.436332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.53465799999999997</v>
+      </c>
+      <c r="G25">
+        <v>0.34282600000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -942,16 +1020,19 @@
         <v>0.32971499999999998</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="E26">
-        <v>0.33333299999999999</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="F26">
-        <v>0.45900800000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.51708799999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.36041600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -959,19 +1040,22 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>0.32684000000000002</v>
+        <v>0.368506</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.37273400000000001</v>
       </c>
       <c r="E27">
-        <v>0.33246500000000001</v>
+        <v>0.368506</v>
       </c>
       <c r="F27">
-        <v>0.45652599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.583561</v>
+      </c>
+      <c r="G27">
+        <v>0.40121800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -982,16 +1066,19 @@
         <v>0.32990700000000001</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.32990700000000001</v>
       </c>
       <c r="E28">
-        <v>0.33333299999999999</v>
+        <v>0.32990700000000001</v>
       </c>
       <c r="F28">
-        <v>0.463088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.56758600000000003</v>
+      </c>
+      <c r="G28">
+        <v>0.397312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1002,16 +1089,19 @@
         <v>0.326905</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.326905</v>
       </c>
       <c r="E29">
-        <v>0.33333299999999999</v>
+        <v>0.326905</v>
       </c>
       <c r="F29">
-        <v>0.42863299999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.56601500000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.39948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1022,16 +1112,19 @@
         <v>0.329127</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.329127</v>
       </c>
       <c r="E30">
-        <v>0.33333299999999999</v>
+        <v>0.329127</v>
       </c>
       <c r="F30">
-        <v>0.435832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.54061400000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.38909899999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1042,16 +1135,19 @@
         <v>0.32350000000000001</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="E31">
-        <v>0.33333299999999999</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="F31">
-        <v>0.46630100000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.55705099999999996</v>
+      </c>
+      <c r="G31">
+        <v>0.410717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1059,19 +1155,22 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.61225799999999997</v>
+        <v>0.62416199999999999</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.70443500000000003</v>
       </c>
       <c r="E32">
-        <v>0.14466499999999999</v>
+        <v>0.43456800000000001</v>
       </c>
       <c r="F32">
-        <v>0.64340699999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.77032699999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.64136099999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1079,19 +1178,22 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.408275</v>
+        <v>0.43497799999999998</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.43836000000000003</v>
       </c>
       <c r="E33">
-        <v>0.315104</v>
+        <v>0.39971200000000001</v>
       </c>
       <c r="F33">
-        <v>0.47445599999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.68380700000000005</v>
+      </c>
+      <c r="G33">
+        <v>0.47562399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1099,19 +1201,22 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>0.347028</v>
+        <v>0.39199600000000001</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.40192899999999998</v>
       </c>
       <c r="E34">
-        <v>0.32888099999999998</v>
+        <v>0.38441999999999998</v>
       </c>
       <c r="F34">
-        <v>0.46005200000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.66531499999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.47153400000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1119,19 +1224,22 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>0.32786399999999999</v>
+        <v>0.344273</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.34030500000000002</v>
       </c>
       <c r="E35">
-        <v>0.33068799999999998</v>
+        <v>0.33832000000000001</v>
       </c>
       <c r="F35">
-        <v>0.41698299999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.62938899999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.43582799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1139,19 +1247,22 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>0.32708599999999999</v>
+        <v>0.33704200000000001</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.33704200000000001</v>
       </c>
       <c r="E36">
-        <v>0.331349</v>
+        <v>0.33704200000000001</v>
       </c>
       <c r="F36">
-        <v>0.46509600000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64849199999999996</v>
+      </c>
+      <c r="G36">
+        <v>0.44652399999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1162,16 +1273,19 @@
         <v>0.33260000000000001</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.32901599999999998</v>
       </c>
       <c r="E37">
-        <v>0.33154099999999997</v>
+        <v>0.32722400000000001</v>
       </c>
       <c r="F37">
-        <v>0.45002900000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.67104699999999995</v>
+      </c>
+      <c r="G37">
+        <v>0.47764099999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1182,16 +1296,19 @@
         <v>0.32695200000000002</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.32695200000000002</v>
       </c>
       <c r="E38">
-        <v>0.33024300000000001</v>
+        <v>0.32695200000000002</v>
       </c>
       <c r="F38">
-        <v>0.487786</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.66217599999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.48692800000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1199,19 +1316,22 @@
         <v>22</v>
       </c>
       <c r="C39">
-        <v>0.332679</v>
+        <v>0.32840599999999998</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.33019799999999999</v>
       </c>
       <c r="E39">
-        <v>0.33154099999999997</v>
+        <v>0.32840599999999998</v>
       </c>
       <c r="F39">
-        <v>0.44003799999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64348300000000003</v>
+      </c>
+      <c r="G39">
+        <v>0.44530700000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1222,16 +1342,19 @@
         <v>0.32554300000000003</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.32554300000000003</v>
       </c>
       <c r="E40">
-        <v>0.33333299999999999</v>
+        <v>0.32554300000000003</v>
       </c>
       <c r="F40">
-        <v>0.436332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64102000000000003</v>
+      </c>
+      <c r="G40">
+        <v>0.44609500000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1242,16 +1365,19 @@
         <v>0.32971499999999998</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="E41">
-        <v>0.33333299999999999</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="F41">
-        <v>0.45900800000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.65905999999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.46108399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1262,16 +1388,19 @@
         <v>0.32684000000000002</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.32684000000000002</v>
       </c>
       <c r="E42">
-        <v>0.33246500000000001</v>
+        <v>0.32684000000000002</v>
       </c>
       <c r="F42">
-        <v>0.45652599999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64941899999999997</v>
+      </c>
+      <c r="G42">
+        <v>0.46539900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1282,16 +1411,19 @@
         <v>0.32990700000000001</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.32990700000000001</v>
       </c>
       <c r="E43">
-        <v>0.33333299999999999</v>
+        <v>0.32990700000000001</v>
       </c>
       <c r="F43">
-        <v>0.463088</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.66123399999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.47800199999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1302,16 +1434,19 @@
         <v>0.326905</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.326905</v>
       </c>
       <c r="E44">
-        <v>0.33333299999999999</v>
+        <v>0.326905</v>
       </c>
       <c r="F44">
-        <v>0.42863299999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64090499999999995</v>
+      </c>
+      <c r="G44">
+        <v>0.45482600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1322,16 +1457,19 @@
         <v>0.329127</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.329127</v>
       </c>
       <c r="E45">
-        <v>0.33333299999999999</v>
+        <v>0.329127</v>
       </c>
       <c r="F45">
-        <v>0.435832</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.621201</v>
+      </c>
+      <c r="G45">
+        <v>0.41883999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1342,13 +1480,16 @@
         <v>0.32350000000000001</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="E46">
-        <v>0.33333299999999999</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="F46">
-        <v>0.46630100000000002</v>
+        <v>0.64588100000000004</v>
+      </c>
+      <c r="G46">
+        <v>0.460447</v>
       </c>
     </row>
   </sheetData>

--- a/model/results/experiment3/repeated/results.xlsx
+++ b/model/results/experiment3/repeated/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xav/Downloads/results/experiment3/repeated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52429B3-FE29-DD45-BC9A-636D69D6E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DCE73-1734-CB42-A18C-448F676DC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DF930B9A-4194-F248-A12B-443DEBD84A5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>model</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3A7431-E7A9-234E-A3CB-E215A6BF6280}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.364506</v>
+        <v>0.32777800000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.47987200000000002</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G2">
-        <v>0.32551099999999999</v>
+        <v>0.31923699999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -485,22 +485,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.32683800000000002</v>
+        <v>0.326013</v>
       </c>
       <c r="D3">
-        <v>0.32683800000000002</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.32683800000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.50449699999999997</v>
+        <v>0.50110200000000005</v>
       </c>
       <c r="G3">
-        <v>0.33202599999999999</v>
+        <v>0.33229500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -508,22 +508,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.32379799999999997</v>
+        <v>0.32287300000000002</v>
       </c>
       <c r="D4">
-        <v>0.32379799999999997</v>
+        <v>0.175043</v>
       </c>
       <c r="E4">
-        <v>0.32379799999999997</v>
+        <v>0.175043</v>
       </c>
       <c r="F4">
-        <v>0.48890099999999997</v>
+        <v>0.48619000000000001</v>
       </c>
       <c r="G4">
-        <v>0.32698700000000003</v>
+        <v>0.32630799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -531,22 +531,22 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.32786399999999999</v>
+        <v>0.32971499999999998</v>
       </c>
       <c r="D5">
-        <v>0.32786399999999999</v>
+        <v>0.31919599999999998</v>
       </c>
       <c r="E5">
-        <v>0.32786399999999999</v>
+        <v>0.31919599999999998</v>
       </c>
       <c r="F5">
-        <v>0.49946400000000002</v>
+        <v>0.47979300000000003</v>
       </c>
       <c r="G5">
-        <v>0.33184000000000002</v>
+        <v>0.32544899999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -554,22 +554,22 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.326289</v>
+        <v>0.32797599999999999</v>
       </c>
       <c r="D6">
-        <v>0.326289</v>
+        <v>0.33753499999999997</v>
       </c>
       <c r="E6">
-        <v>0.326289</v>
+        <v>0.33753499999999997</v>
       </c>
       <c r="F6">
-        <v>0.49732999999999999</v>
+        <v>0.48499300000000001</v>
       </c>
       <c r="G6">
-        <v>0.33080700000000002</v>
+        <v>0.32705499999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -577,22 +577,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.32722400000000001</v>
+        <v>0.33154099999999997</v>
       </c>
       <c r="D7">
-        <v>0.32722400000000001</v>
+        <v>0.36452699999999999</v>
       </c>
       <c r="E7">
-        <v>0.32722400000000001</v>
+        <v>0.36452699999999999</v>
       </c>
       <c r="F7">
-        <v>0.48040899999999997</v>
+        <v>0.50051999999999996</v>
       </c>
       <c r="G7">
-        <v>0.32499800000000001</v>
+        <v>0.33317600000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,896 +600,344 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.32695200000000002</v>
+        <v>0.32974900000000001</v>
       </c>
       <c r="D8">
-        <v>0.32695200000000002</v>
+        <v>0.392621</v>
       </c>
       <c r="E8">
-        <v>0.32695200000000002</v>
+        <v>0.392621</v>
       </c>
       <c r="F8">
-        <v>0.46980499999999997</v>
+        <v>0.50100500000000003</v>
       </c>
       <c r="G8">
-        <v>0.32145200000000002</v>
+        <v>0.333009</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.32840599999999998</v>
+        <v>0.48024699999999998</v>
       </c>
       <c r="D9">
-        <v>0.32840599999999998</v>
+        <v>0.678616</v>
       </c>
       <c r="E9">
-        <v>0.32840599999999998</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="F9">
-        <v>0.493228</v>
+        <v>0.69967500000000005</v>
       </c>
       <c r="G9">
-        <v>0.330152</v>
+        <v>0.56989000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.32554300000000003</v>
+        <v>0.49793300000000001</v>
       </c>
       <c r="D10">
-        <v>0.32554300000000003</v>
+        <v>0.45555600000000002</v>
       </c>
       <c r="E10">
-        <v>0.32554300000000003</v>
+        <v>0.25193300000000002</v>
       </c>
       <c r="F10">
-        <v>0.49001400000000001</v>
+        <v>0.66717599999999999</v>
       </c>
       <c r="G10">
-        <v>0.327932</v>
+        <v>0.51480700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.32971499999999998</v>
+        <v>0.46599400000000002</v>
       </c>
       <c r="D11">
-        <v>0.32971499999999998</v>
+        <v>0.53297300000000003</v>
       </c>
       <c r="E11">
-        <v>0.32971499999999998</v>
+        <v>0.36144100000000001</v>
       </c>
       <c r="F11">
-        <v>0.49198599999999998</v>
+        <v>0.65003100000000003</v>
       </c>
       <c r="G11">
-        <v>0.32999699999999998</v>
+        <v>0.52215299999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.32684000000000002</v>
+        <v>0.43580799999999997</v>
       </c>
       <c r="D12">
-        <v>0.32684000000000002</v>
+        <v>0.52300199999999997</v>
       </c>
       <c r="E12">
-        <v>0.32684000000000002</v>
+        <v>0.33635900000000002</v>
       </c>
       <c r="F12">
-        <v>0.50342399999999998</v>
+        <v>0.65115299999999998</v>
       </c>
       <c r="G12">
-        <v>0.332791</v>
+        <v>0.48560300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.32990700000000001</v>
+        <v>0.452764</v>
       </c>
       <c r="D13">
-        <v>0.32990700000000001</v>
+        <v>0.42534899999999998</v>
       </c>
       <c r="E13">
-        <v>0.32990700000000001</v>
+        <v>0.28204899999999999</v>
       </c>
       <c r="F13">
-        <v>0.48527100000000001</v>
+        <v>0.66295599999999999</v>
       </c>
       <c r="G13">
-        <v>0.33402300000000001</v>
+        <v>0.49257099999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>37</v>
-      </c>
       <c r="C14">
-        <v>0.326905</v>
+        <v>0.43310799999999999</v>
       </c>
       <c r="D14">
-        <v>0.326905</v>
+        <v>0.53401699999999996</v>
       </c>
       <c r="E14">
-        <v>0.326905</v>
+        <v>0.36435899999999999</v>
       </c>
       <c r="F14">
-        <v>0.49459199999999998</v>
+        <v>0.62815699999999997</v>
       </c>
       <c r="G14">
-        <v>0.32973400000000003</v>
+        <v>0.46811599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>0.329127</v>
+        <v>0.42725000000000002</v>
       </c>
       <c r="D15">
-        <v>0.329127</v>
+        <v>0.51940900000000001</v>
       </c>
       <c r="E15">
-        <v>0.329127</v>
+        <v>0.37084800000000001</v>
       </c>
       <c r="F15">
-        <v>0.49385899999999999</v>
+        <v>0.62644599999999995</v>
       </c>
       <c r="G15">
-        <v>0.330565</v>
+        <v>0.47644300000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.32350000000000001</v>
+        <v>0.62716000000000005</v>
       </c>
       <c r="D16">
-        <v>0.32350000000000001</v>
+        <v>0.75636400000000004</v>
       </c>
       <c r="E16">
-        <v>0.32350000000000001</v>
+        <v>0.43086400000000002</v>
       </c>
       <c r="F16">
-        <v>0.489925</v>
+        <v>0.80596599999999996</v>
       </c>
       <c r="G16">
-        <v>0.32699499999999998</v>
+        <v>0.70002200000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.43624299999999999</v>
+        <v>0.59610799999999997</v>
       </c>
       <c r="D17">
-        <v>0.52336099999999997</v>
+        <v>0.56035100000000004</v>
       </c>
       <c r="E17">
-        <v>0.26803399999999999</v>
+        <v>0.33756000000000003</v>
       </c>
       <c r="F17">
-        <v>0.63750300000000004</v>
+        <v>0.78143399999999996</v>
       </c>
       <c r="G17">
-        <v>0.48180099999999998</v>
+        <v>0.64284799999999997</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.37709100000000001</v>
+        <v>0.52256999999999998</v>
       </c>
       <c r="D18">
-        <v>0.42562499999999998</v>
+        <v>0.59831400000000001</v>
       </c>
       <c r="E18">
-        <v>0.25426300000000002</v>
+        <v>0.42493599999999998</v>
       </c>
       <c r="F18">
-        <v>0.60672300000000001</v>
+        <v>0.72075999999999996</v>
       </c>
       <c r="G18">
-        <v>0.41819499999999998</v>
+        <v>0.54397200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.38939200000000002</v>
+        <v>0.45658300000000002</v>
       </c>
       <c r="D19">
-        <v>0.407831</v>
+        <v>0.49392200000000003</v>
       </c>
       <c r="E19">
-        <v>0.32914500000000002</v>
+        <v>0.39722200000000002</v>
       </c>
       <c r="F19">
-        <v>0.60769899999999999</v>
+        <v>0.68862000000000001</v>
       </c>
       <c r="G19">
-        <v>0.41852299999999998</v>
+        <v>0.523563</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>0.32521800000000001</v>
+        <v>0.43101699999999998</v>
       </c>
       <c r="D20">
-        <v>0.32915299999999997</v>
+        <v>0.392733</v>
       </c>
       <c r="E20">
-        <v>0.31265199999999999</v>
+        <v>0.33909699999999998</v>
       </c>
       <c r="F20">
-        <v>0.54807700000000004</v>
+        <v>0.68395600000000001</v>
       </c>
       <c r="G20">
-        <v>0.38084400000000002</v>
+        <v>0.50470499999999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>0.33704200000000001</v>
+        <v>0.41194399999999998</v>
       </c>
       <c r="D21">
-        <v>0.33704200000000001</v>
+        <v>0.44616699999999998</v>
       </c>
       <c r="E21">
-        <v>0.33704200000000001</v>
+        <v>0.408966</v>
       </c>
       <c r="F21">
-        <v>0.55113699999999999</v>
+        <v>0.68990499999999999</v>
       </c>
       <c r="G21">
-        <v>0.387604</v>
+        <v>0.51660499999999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="B22">
-        <v>16</v>
-      </c>
       <c r="C22">
-        <v>0.32722400000000001</v>
+        <v>0.41980699999999999</v>
       </c>
       <c r="D22">
-        <v>0.32722400000000001</v>
+        <v>0.47830600000000001</v>
       </c>
       <c r="E22">
-        <v>0.32722400000000001</v>
+        <v>0.44079600000000002</v>
       </c>
       <c r="F22">
-        <v>0.56588899999999998</v>
+        <v>0.67324300000000004</v>
       </c>
       <c r="G22">
-        <v>0.39837400000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>0.32695200000000002</v>
-      </c>
-      <c r="D23">
-        <v>0.33759499999999998</v>
-      </c>
-      <c r="E23">
-        <v>0.32695200000000002</v>
-      </c>
-      <c r="F23">
-        <v>0.57547300000000001</v>
-      </c>
-      <c r="G23">
-        <v>0.420431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>0.318305</v>
-      </c>
-      <c r="D24">
-        <v>0.31972499999999998</v>
-      </c>
-      <c r="E24">
-        <v>0.318305</v>
-      </c>
-      <c r="F24">
-        <v>0.55779500000000004</v>
-      </c>
-      <c r="G24">
-        <v>0.38724500000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>0.33091900000000002</v>
-      </c>
-      <c r="D25">
-        <v>0.33499800000000002</v>
-      </c>
-      <c r="E25">
-        <v>0.33091900000000002</v>
-      </c>
-      <c r="F25">
-        <v>0.53465799999999997</v>
-      </c>
-      <c r="G25">
-        <v>0.34282600000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>0.32971499999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.32971499999999998</v>
-      </c>
-      <c r="E26">
-        <v>0.32971499999999998</v>
-      </c>
-      <c r="F26">
-        <v>0.51708799999999999</v>
-      </c>
-      <c r="G26">
-        <v>0.36041600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>0.368506</v>
-      </c>
-      <c r="D27">
-        <v>0.37273400000000001</v>
-      </c>
-      <c r="E27">
-        <v>0.368506</v>
-      </c>
-      <c r="F27">
-        <v>0.583561</v>
-      </c>
-      <c r="G27">
-        <v>0.40121800000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>0.32990700000000001</v>
-      </c>
-      <c r="D28">
-        <v>0.32990700000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.32990700000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.56758600000000003</v>
-      </c>
-      <c r="G28">
-        <v>0.397312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <v>0.326905</v>
-      </c>
-      <c r="D29">
-        <v>0.326905</v>
-      </c>
-      <c r="E29">
-        <v>0.326905</v>
-      </c>
-      <c r="F29">
-        <v>0.56601500000000005</v>
-      </c>
-      <c r="G29">
-        <v>0.39948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>0.329127</v>
-      </c>
-      <c r="D30">
-        <v>0.329127</v>
-      </c>
-      <c r="E30">
-        <v>0.329127</v>
-      </c>
-      <c r="F30">
-        <v>0.54061400000000004</v>
-      </c>
-      <c r="G30">
-        <v>0.38909899999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="D31">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="E31">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="F31">
-        <v>0.55705099999999996</v>
-      </c>
-      <c r="G31">
-        <v>0.410717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.62416199999999999</v>
-      </c>
-      <c r="D32">
-        <v>0.70443500000000003</v>
-      </c>
-      <c r="E32">
-        <v>0.43456800000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.77032699999999998</v>
-      </c>
-      <c r="G32">
-        <v>0.64136099999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>0.43497799999999998</v>
-      </c>
-      <c r="D33">
-        <v>0.43836000000000003</v>
-      </c>
-      <c r="E33">
-        <v>0.39971200000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.68380700000000005</v>
-      </c>
-      <c r="G33">
-        <v>0.47562399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>0.39199600000000001</v>
-      </c>
-      <c r="D34">
-        <v>0.40192899999999998</v>
-      </c>
-      <c r="E34">
-        <v>0.38441999999999998</v>
-      </c>
-      <c r="F34">
-        <v>0.66531499999999999</v>
-      </c>
-      <c r="G34">
-        <v>0.47153400000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>0.344273</v>
-      </c>
-      <c r="D35">
-        <v>0.34030500000000002</v>
-      </c>
-      <c r="E35">
-        <v>0.33832000000000001</v>
-      </c>
-      <c r="F35">
-        <v>0.62938899999999998</v>
-      </c>
-      <c r="G35">
-        <v>0.43582799999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>0.33704200000000001</v>
-      </c>
-      <c r="D36">
-        <v>0.33704200000000001</v>
-      </c>
-      <c r="E36">
-        <v>0.33704200000000001</v>
-      </c>
-      <c r="F36">
-        <v>0.64849199999999996</v>
-      </c>
-      <c r="G36">
-        <v>0.44652399999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D37">
-        <v>0.32901599999999998</v>
-      </c>
-      <c r="E37">
-        <v>0.32722400000000001</v>
-      </c>
-      <c r="F37">
-        <v>0.67104699999999995</v>
-      </c>
-      <c r="G37">
-        <v>0.47764099999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>0.32695200000000002</v>
-      </c>
-      <c r="D38">
-        <v>0.32695200000000002</v>
-      </c>
-      <c r="E38">
-        <v>0.32695200000000002</v>
-      </c>
-      <c r="F38">
-        <v>0.66217599999999999</v>
-      </c>
-      <c r="G38">
-        <v>0.48692800000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>0.32840599999999998</v>
-      </c>
-      <c r="D39">
-        <v>0.33019799999999999</v>
-      </c>
-      <c r="E39">
-        <v>0.32840599999999998</v>
-      </c>
-      <c r="F39">
-        <v>0.64348300000000003</v>
-      </c>
-      <c r="G39">
-        <v>0.44530700000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>25</v>
-      </c>
-      <c r="C40">
-        <v>0.32554300000000003</v>
-      </c>
-      <c r="D40">
-        <v>0.32554300000000003</v>
-      </c>
-      <c r="E40">
-        <v>0.32554300000000003</v>
-      </c>
-      <c r="F40">
-        <v>0.64102000000000003</v>
-      </c>
-      <c r="G40">
-        <v>0.44609500000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <v>0.32971499999999998</v>
-      </c>
-      <c r="D41">
-        <v>0.32971499999999998</v>
-      </c>
-      <c r="E41">
-        <v>0.32971499999999998</v>
-      </c>
-      <c r="F41">
-        <v>0.65905999999999998</v>
-      </c>
-      <c r="G41">
-        <v>0.46108399999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42">
-        <v>31</v>
-      </c>
-      <c r="C42">
-        <v>0.32684000000000002</v>
-      </c>
-      <c r="D42">
-        <v>0.32684000000000002</v>
-      </c>
-      <c r="E42">
-        <v>0.32684000000000002</v>
-      </c>
-      <c r="F42">
-        <v>0.64941899999999997</v>
-      </c>
-      <c r="G42">
-        <v>0.46539900000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <v>0.32990700000000001</v>
-      </c>
-      <c r="D43">
-        <v>0.32990700000000001</v>
-      </c>
-      <c r="E43">
-        <v>0.32990700000000001</v>
-      </c>
-      <c r="F43">
-        <v>0.66123399999999999</v>
-      </c>
-      <c r="G43">
-        <v>0.47800199999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>37</v>
-      </c>
-      <c r="C44">
-        <v>0.326905</v>
-      </c>
-      <c r="D44">
-        <v>0.326905</v>
-      </c>
-      <c r="E44">
-        <v>0.326905</v>
-      </c>
-      <c r="F44">
-        <v>0.64090499999999995</v>
-      </c>
-      <c r="G44">
-        <v>0.45482600000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>0.329127</v>
-      </c>
-      <c r="D45">
-        <v>0.329127</v>
-      </c>
-      <c r="E45">
-        <v>0.329127</v>
-      </c>
-      <c r="F45">
-        <v>0.621201</v>
-      </c>
-      <c r="G45">
-        <v>0.41883999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>43</v>
-      </c>
-      <c r="C46">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="D46">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="E46">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="F46">
-        <v>0.64588100000000004</v>
-      </c>
-      <c r="G46">
-        <v>0.460447</v>
+        <v>0.494894</v>
       </c>
     </row>
   </sheetData>
